--- a/report/Weekly_Report.xlsx
+++ b/report/Weekly_Report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\files.cae.wisc.edu\t\tcjordan3\ECE554\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\ECE554\Capstone Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{351C5F2C-C9B9-4975-9734-0934246D0844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99052C6B-FAD1-4527-8C65-0193E19EEBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{67EA143E-9FE8-7540-9204-94FEFE791C20}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>Week 0</t>
   </si>
@@ -49,15 +49,6 @@
     <t>Week 2</t>
   </si>
   <si>
-    <t>Lightning Talk: https://docs.google.com/presentation/d/19FomPpo3S-ePl_DAtJn6Odd68mvJtN1wyWVKziXsiuk/edit?usp=sharing</t>
-  </si>
-  <si>
-    <t>Architectural Review: https://docs.google.com/presentation/d/1PJL8Pr9NJcL3hpBUXV5uTQ0YelbLzM8umgOfKb2a2S8/edit?usp=sharing</t>
-  </si>
-  <si>
-    <t>Microarchitectural Review: https://docs.google.com/presentation/d/1F5n9pgkNFrn3lTKGmvGvJ7LIbyyJdxtRSAoK_p2GbtI/edit?usp=sharing</t>
-  </si>
-  <si>
     <t>Introduction Slide</t>
   </si>
   <si>
@@ -74,16 +65,42 @@
   </si>
   <si>
     <t>Modular-Level Implementation</t>
+  </si>
+  <si>
+    <t>Lightning Talk</t>
+  </si>
+  <si>
+    <t>Lightning Talk:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Architectural Review: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microarchitectural Review: </t>
+  </si>
+  <si>
+    <t>Architechtural Review</t>
+  </si>
+  <si>
+    <t>Microarchitechtural Review</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -106,16 +123,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -451,7 +473,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:J8"/>
+      <selection activeCell="A12" sqref="A12:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
@@ -463,7 +485,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -476,16 +498,18 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1"/>
@@ -506,7 +530,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -519,16 +543,18 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1"/>
@@ -561,7 +587,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -574,16 +600,18 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1"/>
@@ -610,6 +638,11 @@
     <mergeCell ref="A7:J7"/>
     <mergeCell ref="A8:J8"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A3:J3" r:id="rId1" display="Lightning Talk" xr:uid="{9AF9454C-6F9D-4F74-B7F5-33711E7CEDC4}"/>
+    <hyperlink ref="A7:J7" r:id="rId2" display="Architechtural Review" xr:uid="{6BDFF9B9-08FB-4541-B726-63C2C26B71A4}"/>
+    <hyperlink ref="A12:J12" r:id="rId3" display="Microarchitechtural Review" xr:uid="{1AC4829C-E777-4968-9492-BD601C3DD2FC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -631,7 +664,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -645,7 +678,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -659,7 +692,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -678,7 +711,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -692,7 +725,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -735,7 +768,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>

--- a/report/Weekly_Report.xlsx
+++ b/report/Weekly_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\ECE554\Capstone Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99052C6B-FAD1-4527-8C65-0193E19EEBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF56B70-54FC-4A17-AEC0-7AD539623D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{67EA143E-9FE8-7540-9204-94FEFE791C20}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Week 0</t>
   </si>
@@ -70,19 +70,10 @@
     <t>Lightning Talk</t>
   </si>
   <si>
-    <t>Lightning Talk:</t>
+    <t>Microarchitectural Review</t>
   </si>
   <si>
-    <t xml:space="preserve">Architectural Review: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microarchitectural Review: </t>
-  </si>
-  <si>
-    <t>Architechtural Review</t>
-  </si>
-  <si>
-    <t>Microarchitechtural Review</t>
+    <t>Architectural Review</t>
   </si>
 </sst>
 </file>
@@ -473,7 +464,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:J12"/>
+      <selection activeCell="A3" sqref="A3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
@@ -485,7 +476,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -498,9 +489,7 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -543,9 +532,7 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -587,7 +574,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -600,9 +587,7 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -638,11 +623,6 @@
     <mergeCell ref="A7:J7"/>
     <mergeCell ref="A8:J8"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A3:J3" r:id="rId1" display="Lightning Talk" xr:uid="{9AF9454C-6F9D-4F74-B7F5-33711E7CEDC4}"/>
-    <hyperlink ref="A7:J7" r:id="rId2" display="Architechtural Review" xr:uid="{6BDFF9B9-08FB-4541-B726-63C2C26B71A4}"/>
-    <hyperlink ref="A12:J12" r:id="rId3" display="Microarchitechtural Review" xr:uid="{1AC4829C-E777-4968-9492-BD601C3DD2FC}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/report/Weekly_Report.xlsx
+++ b/report/Weekly_Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\ECE554\Capstone Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parid\Documents\GitHub\ECE-554-Capstone-Project\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99052C6B-FAD1-4527-8C65-0193E19EEBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7663B4B1-D03F-497A-9182-5B905EABF69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{67EA143E-9FE8-7540-9204-94FEFE791C20}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="2" xr2:uid="{67EA143E-9FE8-7540-9204-94FEFE791C20}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>Week 0</t>
   </si>
@@ -83,13 +83,22 @@
   </si>
   <si>
     <t>Microarchitechtural Review</t>
+  </si>
+  <si>
+    <t>After we decided that we want to make Just Dance for our project, I read about the different ways to track body movements, image processing algorithms for detecting a body or parts of a body, and algorithms for comparing two videos. At the end of this week we had finalised that we wanted to do DTW for the comparision algorithm.</t>
+  </si>
+  <si>
+    <t>I read about how DTW works, and the different ways to make it faster, and smaller so that it can fit on an FPGA and work in real time. Decided on an implementation we liked.</t>
+  </si>
+  <si>
+    <t>We spent this week deciding our project. Our first idea was a Roomba (automated vaccuum and mop) so I spent this week reading about SLAM before deciding that it is out of the scope of this project for now. Then when we thought about doing Just Dance I read a little about the different ways we would track the dancer (imu vs camera) and how much memory we would need.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -127,13 +136,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -472,18 +487,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A65ED4-AFC3-7943-A54F-D26BF1B03A96}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12:J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -497,7 +512,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -511,7 +526,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -523,12 +538,12 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -542,7 +557,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -556,7 +571,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -568,7 +583,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -580,12 +595,12 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -599,7 +614,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -613,7 +628,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -655,14 +670,14 @@
       <selection activeCell="A13" sqref="A13:J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -676,7 +691,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -690,7 +705,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -704,12 +719,12 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -723,7 +738,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -737,7 +752,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -749,7 +764,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -761,12 +776,12 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -780,7 +795,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -792,7 +807,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -823,32 +838,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6AF9D12-BAE8-1A42-83B7-3859D323A59F}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10">
+    <row r="2" spans="1:10" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -860,7 +877,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -872,24 +889,26 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10">
+    <row r="6" spans="1:10" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -901,7 +920,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -913,24 +932,26 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -942,7 +963,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -954,30 +975,20 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A9:J9"/>
+  <mergeCells count="9">
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A10:J10"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A13:J13"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A4:J4"/>
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A8:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -991,14 +1002,14 @@
       <selection sqref="A1:J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1010,7 +1021,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1022,7 +1033,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1034,12 +1045,12 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1051,7 +1062,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1063,7 +1074,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1075,7 +1086,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1087,12 +1098,12 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1104,7 +1115,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1116,7 +1127,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1153,14 +1164,14 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1172,7 +1183,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1184,7 +1195,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1196,12 +1207,12 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1213,7 +1224,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1225,7 +1236,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1237,7 +1248,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1249,12 +1260,12 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1266,7 +1277,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1278,7 +1289,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>

--- a/report/Weekly_Report.xlsx
+++ b/report/Weekly_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parid\Documents\GitHub\ECE-554-Capstone-Project\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7663B4B1-D03F-497A-9182-5B905EABF69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACB4ACC-59E8-4F9A-A862-9E3DA6DE877B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="2" xr2:uid="{67EA143E-9FE8-7540-9204-94FEFE791C20}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>Week 0</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>We spent this week deciding our project. Our first idea was a Roomba (automated vaccuum and mop) so I spent this week reading about SLAM before deciding that it is out of the scope of this project for now. Then when we thought about doing Just Dance I read a little about the different ways we would track the dancer (imu vs camera) and how much memory we would need.</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Implemented and tested a basic DTW and custom shidt register. Will need to experiment with types of ditance and minimum units.</t>
   </si>
 </sst>
 </file>
@@ -139,13 +145,13 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -499,44 +505,44 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -544,56 +550,56 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -601,44 +607,44 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -678,46 +684,46 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -725,56 +731,56 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -782,42 +788,42 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -841,7 +847,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:J12"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -866,28 +872,28 @@
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -909,28 +915,28 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -952,31 +958,38 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E17" s="3"/>
+      <c r="E17" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1010,40 +1023,40 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1051,52 +1064,52 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1104,40 +1117,40 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1172,40 +1185,40 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1213,52 +1226,52 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1266,40 +1279,40 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/report/Weekly_Report.xlsx
+++ b/report/Weekly_Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parid\Documents\GitHub\ECE-554-Capstone-Project\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jchaud13\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACB4ACC-59E8-4F9A-A862-9E3DA6DE877B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776F2753-20D9-428A-97BC-C2D57E179EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="2" xr2:uid="{67EA143E-9FE8-7540-9204-94FEFE791C20}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{67EA143E-9FE8-7540-9204-94FEFE791C20}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>Week 0</t>
   </si>
@@ -98,6 +98,30 @@
   </si>
   <si>
     <t>Implemented and tested a basic DTW and custom shidt register. Will need to experiment with types of ditance and minimum units.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Researched DE1-SOC USB and SD card capabilities and challenges associated with each. </t>
+  </si>
+  <si>
+    <t>Researched MP4 files and how decompression works for them.</t>
+  </si>
+  <si>
+    <t>Researched the interaction between HPS and FPGA</t>
+  </si>
+  <si>
+    <t>Troubleshooted linux imaging onto DE1-SOC</t>
+  </si>
+  <si>
+    <t>Ran test program in C to ensure that HPS is able to interact with FPGA via software</t>
+  </si>
+  <si>
+    <t>Created a test program to move a bmp file from USB into SDRAM of FPGA</t>
+  </si>
+  <si>
+    <t>Created a program to access SDRAM of FPGA, receive a bmp, and store into the USB attached to DE1-SOC</t>
+  </si>
+  <si>
+    <t>Researched Compression for bmps given the DE1-SOC cannot store an entire decompressed MP4 file</t>
   </si>
 </sst>
 </file>
@@ -142,10 +166,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -497,154 +524,154 @@
       <selection activeCell="A12" sqref="A12:J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -676,154 +703,154 @@
       <selection activeCell="A13" sqref="A13:J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -846,149 +873,149 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6AF9D12-BAE8-1A42-83B7-3859D323A59F}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:10" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:10" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E17" s="1"/>
     </row>
   </sheetData>
@@ -1012,145 +1039,145 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J13"/>
+      <selection activeCell="A9" sqref="A9:J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1171,161 +1198,189 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E11836-74D5-4176-9C3E-4A3086E8DBFD}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A10:J10"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A14:J14"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A6:J6"/>
     <mergeCell ref="A7:J7"/>
     <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/report/Weekly_Report.xlsx
+++ b/report/Weekly_Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\ECE554\Capstone Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parid\Documents\GitHub\ECE-554-Capstone-Project\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF56B70-54FC-4A17-AEC0-7AD539623D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B993FB0A-B324-4573-B949-CB1CF86CBDDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{67EA143E-9FE8-7540-9204-94FEFE791C20}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="2" xr2:uid="{67EA143E-9FE8-7540-9204-94FEFE791C20}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>Week 0</t>
   </si>
@@ -74,13 +74,37 @@
   </si>
   <si>
     <t>Architectural Review</t>
+  </si>
+  <si>
+    <t>We spent this week deciding our project. Our first idea was a Roomba (automated vaccuum and mop) so I spent this week reading about SLAM before deciding that it is out of the scope of this project for now. Then when we thought about doing Just Dance I read a little about the different ways we would track the dancer (imu vs camera) and how much memory we would need.</t>
+  </si>
+  <si>
+    <t>After we decided that we want to make Just Dance for our project, I read about the different ways to track body movements, image processing algorithms for detecting a body or parts of a body, and algorithms for comparing two videos. At the end of this week we had finalised that we wanted to do DTW for the comparision algorithm.</t>
+  </si>
+  <si>
+    <t>I read about how DTW works, and the different ways to make it faster, and smaller so that it can fit on an FPGA and work in real time. Decided on an implementation we liked.</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Implemented and tested a basic DTW and custom shift register. Will need to experiment with types of ditance and minimum units.</t>
+  </si>
+  <si>
+    <t>Weeks 4 and 5</t>
+  </si>
+  <si>
+    <t>While testing DTW further, I realised that the basic version was missing half the functionality. Rewrote a more robust DTW and tested it. The score is much more accurate now.</t>
+  </si>
+  <si>
+    <t>Started working on the game loop.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -118,13 +142,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -463,18 +490,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A65ED4-AFC3-7943-A54F-D26BF1B03A96}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -488,7 +515,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -500,7 +527,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -512,12 +539,12 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -531,7 +558,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -543,7 +570,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -555,7 +582,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -567,12 +594,12 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -586,7 +613,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -598,7 +625,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -635,14 +662,14 @@
       <selection activeCell="A13" sqref="A13:J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -656,7 +683,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -670,7 +697,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -684,12 +711,12 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -703,7 +730,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -717,7 +744,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -729,7 +756,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -741,12 +768,12 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -760,7 +787,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -772,7 +799,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -803,32 +830,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6AF9D12-BAE8-1A42-83B7-3859D323A59F}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10">
+    <row r="2" spans="1:10" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -840,7 +869,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -852,24 +881,26 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10">
+    <row r="6" spans="1:10" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -881,7 +912,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -893,24 +924,26 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="10" spans="1:10" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -922,7 +955,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -934,24 +967,36 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A9:J9"/>
+  <mergeCells count="9">
+    <mergeCell ref="A10:J10"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A13:J13"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A4:J4"/>
@@ -971,14 +1016,14 @@
       <selection sqref="A1:J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -990,7 +1035,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1002,7 +1047,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1014,12 +1059,12 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1031,7 +1076,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1043,7 +1088,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1055,7 +1100,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1067,12 +1112,12 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1084,7 +1129,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1096,7 +1141,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1133,14 +1178,14 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1152,7 +1197,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1164,7 +1209,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1176,12 +1221,12 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1193,7 +1238,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1205,7 +1250,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1217,7 +1262,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1229,12 +1274,12 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1246,7 +1291,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1258,7 +1303,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>

--- a/report/Weekly_Report.xlsx
+++ b/report/Weekly_Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parid\Documents\GitHub\ECE-554-Capstone-Project\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tcjordan3\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B993FB0A-B324-4573-B949-CB1CF86CBDDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E704BA8-4394-4219-AAB0-1B0E6CCA4509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="2" xr2:uid="{67EA143E-9FE8-7540-9204-94FEFE791C20}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{67EA143E-9FE8-7540-9204-94FEFE791C20}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>Week 0</t>
   </si>
@@ -98,13 +98,46 @@
   </si>
   <si>
     <t>Started working on the game loop.</t>
+  </si>
+  <si>
+    <t>Week 0 - Lightning Talk</t>
+  </si>
+  <si>
+    <t>Week 1 - Architectural Review</t>
+  </si>
+  <si>
+    <t>Week 2 - Microarchitectural Review</t>
+  </si>
+  <si>
+    <t>Week 3 - Basic Building Blocks Implementation</t>
+  </si>
+  <si>
+    <t>cordic.sv, LUT.sv, counter.sv, cordic_iteration.sv, CORDIC_tb.sv</t>
+  </si>
+  <si>
+    <t>Week 4 - Processor/Accelerator Implementation</t>
+  </si>
+  <si>
+    <t>hier.sv, hier_tb.sv (incomplete)</t>
+  </si>
+  <si>
+    <t>angle_label_unit, angle_label_unit.sv</t>
+  </si>
+  <si>
+    <t>Basic Building Blocks Implementation</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Processor/Accelerator Implementation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -488,20 +521,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A65ED4-AFC3-7943-A54F-D26BF1B03A96}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -515,7 +548,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -527,7 +560,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -539,12 +572,12 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -558,7 +591,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -570,7 +603,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -582,7 +615,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -594,12 +627,12 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -613,7 +646,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -625,7 +658,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -636,6 +669,26 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -656,20 +709,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2032B162-400A-904A-9AB6-0D1C6A289E88}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:J13"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -683,7 +736,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -697,7 +750,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -711,12 +764,12 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -730,7 +783,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -744,7 +797,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -756,7 +809,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -768,12 +821,12 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -787,7 +840,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -799,8 +852,10 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -810,6 +865,26 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -832,18 +907,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6AF9D12-BAE8-1A42-83B7-3859D323A59F}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="49.15" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -857,7 +932,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15.6" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -869,7 +944,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15.6" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -881,12 +956,12 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="49.15" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -900,7 +975,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -912,7 +987,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -924,12 +999,12 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="31.15" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -943,7 +1018,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -955,7 +1030,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -967,27 +1042,27 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1016,14 +1091,14 @@
       <selection sqref="A1:J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1035,7 +1110,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1047,7 +1122,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1059,12 +1134,12 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1076,7 +1151,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1088,7 +1163,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1100,7 +1175,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1112,12 +1187,12 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1129,7 +1204,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1141,7 +1216,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1178,14 +1253,14 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1197,7 +1272,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1209,7 +1284,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1221,12 +1296,12 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1238,7 +1313,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1250,7 +1325,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1262,7 +1337,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1274,12 +1349,12 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1291,7 +1366,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1303,7 +1378,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>

--- a/report/Weekly_Report.xlsx
+++ b/report/Weekly_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tcjordan3\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E704BA8-4394-4219-AAB0-1B0E6CCA4509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B9B86A-D736-456D-9C5A-4C26BB4D963F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{67EA143E-9FE8-7540-9204-94FEFE791C20}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>Week 0</t>
   </si>
@@ -131,6 +131,18 @@
   </si>
   <si>
     <t>Processor/Accelerator Implementation</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>hier.sv, hier_tb.sv</t>
+  </si>
+  <si>
+    <t>Continuing to write tests for the hierarchy</t>
+  </si>
+  <si>
+    <t>Integrating individual modules &amp; testing</t>
   </si>
 </sst>
 </file>
@@ -521,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A65ED4-AFC3-7943-A54F-D26BF1B03A96}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
@@ -688,6 +700,16 @@
     <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -709,10 +731,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2032B162-400A-904A-9AB6-0D1C6A289E88}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
@@ -884,6 +906,21 @@
     <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/report/Weekly_Report.xlsx
+++ b/report/Weekly_Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tcjordan3\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B9B86A-D736-456D-9C5A-4C26BB4D963F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C67A33-5C2F-418E-A02F-09A7999E7C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{67EA143E-9FE8-7540-9204-94FEFE791C20}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{67EA143E-9FE8-7540-9204-94FEFE791C20}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Diego" sheetId="4" r:id="rId4"/>
     <sheet name="Shantanu" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,6 +31,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,17 +40,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
   <si>
     <t>Week 0</t>
   </si>
   <si>
+    <t>Lightning Talk</t>
+  </si>
+  <si>
     <t>Week 1</t>
   </si>
   <si>
+    <t>Architectural Review</t>
+  </si>
+  <si>
     <t>Week 2</t>
   </si>
   <si>
+    <t>Microarchitectural Review</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Basic Building Blocks Implementation</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Processor/Accelerator Implementation</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Integrating individual modules &amp; testing</t>
+  </si>
+  <si>
+    <t>Week 0 - Lightning Talk</t>
+  </si>
+  <si>
     <t>Introduction Slide</t>
   </si>
   <si>
@@ -58,22 +90,40 @@
     <t>Team Responsibilities</t>
   </si>
   <si>
+    <t>Week 1 - Architectural Review</t>
+  </si>
+  <si>
     <t>Algorithms to Accelerate - DTW</t>
   </si>
   <si>
     <t>Verification of Original Plan</t>
   </si>
   <si>
+    <t>Week 2 - Microarchitectural Review</t>
+  </si>
+  <si>
     <t>Modular-Level Implementation</t>
   </si>
   <si>
-    <t>Lightning Talk</t>
-  </si>
-  <si>
-    <t>Microarchitectural Review</t>
-  </si>
-  <si>
-    <t>Architectural Review</t>
+    <t>Week 3 - Basic Building Blocks Implementation</t>
+  </si>
+  <si>
+    <t>cordic.sv, LUT.sv, counter.sv, cordic_iteration.sv, CORDIC_tb.sv</t>
+  </si>
+  <si>
+    <t>Week 4 - Processor/Accelerator Implementation</t>
+  </si>
+  <si>
+    <t>hier.sv, hier_tb.sv (incomplete)</t>
+  </si>
+  <si>
+    <t>angle_label_unit, angle_label_unit.sv</t>
+  </si>
+  <si>
+    <t>hier.sv, hier_tb.sv</t>
+  </si>
+  <si>
+    <t>Continuing to write tests for the hierarchy</t>
   </si>
   <si>
     <t>We spent this week deciding our project. Our first idea was a Roomba (automated vaccuum and mop) so I spent this week reading about SLAM before deciding that it is out of the scope of this project for now. Then when we thought about doing Just Dance I read a little about the different ways we would track the dancer (imu vs camera) and how much memory we would need.</t>
@@ -85,9 +135,6 @@
     <t>I read about how DTW works, and the different ways to make it faster, and smaller so that it can fit on an FPGA and work in real time. Decided on an implementation we liked.</t>
   </si>
   <si>
-    <t>Week 3</t>
-  </si>
-  <si>
     <t>Implemented and tested a basic DTW and custom shift register. Will need to experiment with types of ditance and minimum units.</t>
   </si>
   <si>
@@ -100,56 +147,71 @@
     <t>Started working on the game loop.</t>
   </si>
   <si>
-    <t>Week 0 - Lightning Talk</t>
-  </si>
-  <si>
-    <t>Week 1 - Architectural Review</t>
-  </si>
-  <si>
-    <t>Week 2 - Microarchitectural Review</t>
-  </si>
-  <si>
-    <t>Week 3 - Basic Building Blocks Implementation</t>
-  </si>
-  <si>
-    <t>cordic.sv, LUT.sv, counter.sv, cordic_iteration.sv, CORDIC_tb.sv</t>
-  </si>
-  <si>
-    <t>Week 4 - Processor/Accelerator Implementation</t>
-  </si>
-  <si>
-    <t>hier.sv, hier_tb.sv (incomplete)</t>
-  </si>
-  <si>
-    <t>angle_label_unit, angle_label_unit.sv</t>
-  </si>
-  <si>
-    <t>Basic Building Blocks Implementation</t>
-  </si>
-  <si>
-    <t>Week 4</t>
-  </si>
-  <si>
-    <t>Processor/Accelerator Implementation</t>
-  </si>
-  <si>
-    <t>Week 5</t>
-  </si>
-  <si>
-    <t>hier.sv, hier_tb.sv</t>
-  </si>
-  <si>
-    <t>Continuing to write tests for the hierarchy</t>
-  </si>
-  <si>
-    <t>Integrating individual modules &amp; testing</t>
+    <t xml:space="preserve">Researched HPS on the DE1-SoC. </t>
+  </si>
+  <si>
+    <t>Tested out and understood the components of the FPGA-HPS Demo program</t>
+  </si>
+  <si>
+    <t>Tried to understand best way to get USB  data onto board processes</t>
+  </si>
+  <si>
+    <t>Decided that it would be easiest to interface with USB via drivers already in linux</t>
+  </si>
+  <si>
+    <t>Began researching linux image onto DE1-SoC - was stalled due to missing wiring (UART - USB)</t>
+  </si>
+  <si>
+    <t>Began understanding how to work with USB through linux</t>
+  </si>
+  <si>
+    <t>Started working on software (c code) to push an image (bitmap) from the usb into the FPGA SDRAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debugged code to push an image onto SDRAM of FPGA - got it work. </t>
+  </si>
+  <si>
+    <t>Confirmed that software to push image worked via another software to get the image from FPGA SDRAM and place into USB.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celebrated very briefly till I looked at the size of 1 bitmap and calculated what the size would be for the entire songs worth of bitmap. </t>
+  </si>
+  <si>
+    <t>Began investigating compression methods that can be applied ahead of time and then decompressed on the board - RLE encoding, using MJPEG, hard coding in the values</t>
+  </si>
+  <si>
+    <t>Did math on potential decompression techniques and made the realization that despite decompression - we would still be over our space limit (we are trying to avoid streaming)</t>
+  </si>
+  <si>
+    <t>Began experimenting with streaming solutions - a double buffer method. Created software to push each image into 2 dedicated addresses in the SDRAM.  Software piece was working. Hardware was not.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given timing constraints with Capstone deadline - made the decision that video due to space constraints and streaming complexity,  will be hardcoded in for reference angles. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shifted focus on Audio - began researching the Wolfson Codec and interfacing it with the SPI and SDRAM. Also researched different audio file types. </t>
+  </si>
+  <si>
+    <t>While working through audio module - realized that there might be an uneccesary complexity between synchronizing our audio and video (video plan was to play through PC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Began implementing a way for the video (including the audio) to be stored on my PC, but the play is triggered by the board.  Successfully created software to communicate via COM port. </t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Began the functionality of the video trigger from board.  While trying to run it along side minilab 2 code, ran into an issue of FPGA being re-wired by JTAG. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Started looking through QSF file and learning more about how the board's programming impacts the hardware components. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -535,20 +597,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A65ED4-AFC3-7943-A54F-D26BF1B03A96}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -560,7 +622,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -572,7 +634,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -584,14 +646,14 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -603,7 +665,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -615,7 +677,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -627,7 +689,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -639,14 +701,14 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -658,7 +720,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -670,7 +732,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -682,34 +744,34 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -733,20 +795,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2032B162-400A-904A-9AB6-0D1C6A289E88}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -758,9 +820,9 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -772,9 +834,9 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -786,14 +848,14 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -805,9 +867,9 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -819,7 +881,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -831,7 +893,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -843,14 +905,14 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -862,7 +924,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -874,9 +936,9 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -888,39 +950,39 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -944,20 +1006,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6AF9D12-BAE8-1A42-83B7-3859D323A59F}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="49.15" customHeight="1">
+    <row r="2" spans="1:10" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -969,7 +1031,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="15.6" customHeight="1">
+    <row r="3" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -981,7 +1043,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="15.6" customHeight="1">
+    <row r="4" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -993,14 +1055,14 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="49.15" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1012,7 +1074,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1024,7 +1086,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1036,14 +1098,14 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="31.15" customHeight="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1055,7 +1117,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1067,7 +1129,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1079,29 +1141,29 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1125,17 +1187,17 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J13"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1147,7 +1209,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1159,7 +1221,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1171,12 +1233,12 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1188,7 +1250,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1200,7 +1262,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1212,7 +1274,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1224,12 +1286,12 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1241,7 +1303,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1253,7 +1315,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1284,21 +1346,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E11836-74D5-4176-9C3E-4A3086E8DBFD}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="81.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1309,8 +1376,10 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1321,7 +1390,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1333,13 +1402,15 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1350,8 +1421,10 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1362,7 +1435,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1374,25 +1447,29 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1403,8 +1480,10 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1415,30 +1494,240 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A13:J13"/>
+  <mergeCells count="23">
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A8:J8"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A4:J4"/>
     <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A11:J11"/>
     <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A8:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/report/Weekly_Report.xlsx
+++ b/report/Weekly_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C67A33-5C2F-418E-A02F-09A7999E7C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6614F153-E6B3-4851-A637-903F5D41EDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{67EA143E-9FE8-7540-9204-94FEFE791C20}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
   <si>
     <t>Week 0</t>
   </si>
@@ -205,6 +205,36 @@
   </si>
   <si>
     <t xml:space="preserve">Started looking through QSF file and learning more about how the board's programming impacts the hardware components. </t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>Moved away from HPS, began brainstorming how to store reference video on personal PC, and synchronize when it starts - began working on synch via UART TX from board</t>
+  </si>
+  <si>
+    <t>Started integrating Happy_Feet module from TJ and Paridhi with the toplevel</t>
+  </si>
+  <si>
+    <t>Finished UART TX module that allows board to let PC know when to start reference video</t>
+  </si>
+  <si>
+    <t>Created basic start and end screens to display via VGA</t>
+  </si>
+  <si>
+    <t>Created reference angle files to be stored on board</t>
+  </si>
+  <si>
+    <t>Upgraded our start and and end to be more dynamic and inlcude some animation on the splash screen</t>
+  </si>
+  <si>
+    <t>Worked with team to resolve appropriate color detection</t>
   </si>
 </sst>
 </file>
@@ -249,8 +279,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -609,42 +642,42 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -652,54 +685,54 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -707,42 +740,42 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -807,46 +840,46 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -854,56 +887,56 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -911,44 +944,44 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1018,42 +1051,42 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1061,42 +1094,42 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1104,42 +1137,42 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1198,40 +1231,40 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1239,52 +1272,52 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1292,40 +1325,40 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1346,10 +1379,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E11836-74D5-4176-9C3E-4A3086E8DBFD}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:J27"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1363,44 +1396,44 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1408,44 +1441,44 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1453,116 +1486,116 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -1570,60 +1603,60 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -1631,44 +1664,44 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -1676,35 +1709,181 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="30">
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A18:J18"/>
     <mergeCell ref="A28:J28"/>
     <mergeCell ref="A29:J29"/>
     <mergeCell ref="A31:J31"/>
@@ -1714,20 +1893,6 @@
     <mergeCell ref="A23:J23"/>
     <mergeCell ref="A24:J24"/>
     <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A7:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/report/Weekly_Report.xlsx
+++ b/report/Weekly_Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parid\Documents\GitHub\ECE-554-Capstone-Project\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6614F153-E6B3-4851-A637-903F5D41EDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A8EB0B-44BE-4B31-B457-61C51F43A97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{67EA143E-9FE8-7540-9204-94FEFE791C20}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{67EA143E-9FE8-7540-9204-94FEFE791C20}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="80">
   <si>
     <t>Week 0</t>
   </si>
@@ -66,18 +66,9 @@
     <t>Basic Building Blocks Implementation</t>
   </si>
   <si>
-    <t>Week 4</t>
-  </si>
-  <si>
-    <t>Processor/Accelerator Implementation</t>
-  </si>
-  <si>
     <t>Week 5</t>
   </si>
   <si>
-    <t>Integrating individual modules &amp; testing</t>
-  </si>
-  <si>
     <t>Week 0 - Lightning Talk</t>
   </si>
   <si>
@@ -132,9 +123,6 @@
     <t>After we decided that we want to make Just Dance for our project, I read about the different ways to track body movements, image processing algorithms for detecting a body or parts of a body, and algorithms for comparing two videos. At the end of this week we had finalised that we wanted to do DTW for the comparision algorithm.</t>
   </si>
   <si>
-    <t>I read about how DTW works, and the different ways to make it faster, and smaller so that it can fit on an FPGA and work in real time. Decided on an implementation we liked.</t>
-  </si>
-  <si>
     <t>Implemented and tested a basic DTW and custom shift register. Will need to experiment with types of ditance and minimum units.</t>
   </si>
   <si>
@@ -235,13 +223,70 @@
   </si>
   <si>
     <t>Worked with team to resolve appropriate color detection</t>
+  </si>
+  <si>
+    <t>I read about how DTW works, and the different ways to make it faster, and smaller so that it can fit on an FPGA and work in real time. Found the following paper that works on a similar FPGA and takes into consideration a Sokoe Chiba band which is used to make the calculation both similar and more accurate.  Paper: M. Hormigo-Jiménez and J. Hormigo, “High-Throughput DTW accelerator with minimum area in AMD FPGA by HLS,” Repositorio Institucional de la Universidad de Málaga, pp. 1–6, Nov. 2023, DOI: 10.1109/dcis58620.2023.10335963.</t>
+  </si>
+  <si>
+    <t>I realised that the paper I was following is overprovisioned for our use and if we allow for a slight error (less that 5%) then we can make the dtw 150x faster and 98.5% smaller. This took a lot of testing in python to make sure that the idea made sense. This DTW was hard to implement as it required a lot of precise timing.</t>
+  </si>
+  <si>
+    <t>We integrated the DTW with Tyler's cordic and I realised that the way I thought the dtw should work is not what Tyler assumed so I made the appropriate changes to dtw, cordic and the tested the two.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We started synthesis testing and there were some problems with how the dtw was written so I fixed that. We merged the code with the peripherals. I wrote a module to isolate colours. Also went to many shops to look for a beanie and gloves </t>
+  </si>
+  <si>
+    <t>Wrote a module to calculate the score from the three DTWs. Worked on isolating the colours which was very difficult and used signal tap for the same. Worked on figuring out why thhe score was taking 1:30 min to turn up.</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reduced exposure and bought new gloves for the colour problem. Realised that we were using the wrong fps for the camera which was why the code was taking so long to find the score.  Connecting the uart was stopping the vga from working and smoking the board so I tried to figure that out and realised that the uart was 5V when we needed 3.3V </t>
+  </si>
+  <si>
+    <t>We brainstormed different ideas. We first came up with the idea of making a roomba but on further research we realised that we can't implement SLAM on the FPGA we are using. We instead decided to go with Just Dance and came up with a basic flow of how it would work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We read a lot of papers to decide how to break the logic, and what algorithms to use, Decided on DTW for socring and Cordic for finding angles. We ended up comparing angles as we believe that using angles will make up for the disparities cause by people of different heights and those standing at different distances from the camera. </t>
+  </si>
+  <si>
+    <t>Here we decided the exact breakdown of the modules and how they would interact with each other. We also made a python script to test if the angle logic and dtw actually worked the way we thought they would and make sense for our usecase</t>
+  </si>
+  <si>
+    <t>We broke off individually to work on differentt aspects of the design.</t>
+  </si>
+  <si>
+    <t>Weeks 3-6</t>
+  </si>
+  <si>
+    <t>We integrated the cordic and the angle label unit with the dtw and fixed the integration errors. Tested it all. Towards the end we realised that Diego was MIA and we would need to do his work too so we split that up.</t>
+  </si>
+  <si>
+    <t>Integrated all the modules and tested them. Started synthesis testing and ran everything end to end to see if there were any major integration issues. We also started figuring out how to isolate the colours and went shopping for a beanie and gloves. We couldn't find gloves so we used different coloured papers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We struggled a lot with isolating the colours because the camera isn’t great and with the slightest exposure everything was turning white. We used signal tap to find the colours. Ordered gloves. </t>
+  </si>
+  <si>
+    <t>We also saw that the score was taking 1:30 min to calculate and realised that the bottleneck was the cluster unit. Worked on ways to make it faster. We eventually settled on reducing the number of frames it processes.</t>
+  </si>
+  <si>
+    <t>While trying to spread out the frames we were using we realised that we had the fps of the camera wrong and our original version was correct we just needed to manage the number of frames correctly.</t>
+  </si>
+  <si>
+    <t>We got new TTL serial cables for our UART so that we could have the reference video synchronised with the game but when we plugged in the cable the vga would stop working. We also noticed some smoke. After a lot of debugging we realised that the board needs a 3.3v cable but the one we had is 5v. SInce there are no more cables our final version needs the reference video played manually.</t>
+  </si>
+  <si>
+    <t>Got everything to work just in time for the demo!! (literally)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -251,6 +296,13 @@
     </font>
     <font>
       <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="10"/>
       <name val="Aptos Narrow"/>
@@ -279,7 +331,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -287,10 +339,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -628,20 +684,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A65ED4-AFC3-7943-A54F-D26BF1B03A96}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -655,19 +711,21 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -679,12 +737,12 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -698,19 +756,21 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -722,7 +782,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -734,12 +794,12 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -753,19 +813,21 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -777,34 +839,74 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -832,16 +934,16 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -853,9 +955,9 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -867,9 +969,9 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -881,14 +983,14 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -900,9 +1002,9 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -914,7 +1016,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -926,7 +1028,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -938,14 +1040,14 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -957,7 +1059,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -969,9 +1071,9 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -983,39 +1085,39 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1037,34 +1139,37 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6AF9D12-BAE8-1A42-83B7-3859D323A59F}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1076,7 +1181,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1088,26 +1193,26 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1119,7 +1224,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1131,26 +1236,26 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1162,7 +1267,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1174,29 +1279,79 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1223,14 +1378,14 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1242,7 +1397,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1254,7 +1409,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1266,12 +1421,12 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1283,7 +1438,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1295,7 +1450,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1307,7 +1462,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1319,12 +1474,12 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1336,7 +1491,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1348,7 +1503,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1381,23 +1536,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E11836-74D5-4176-9C3E-4A3086E8DBFD}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="81.25" customWidth="1"/>
+    <col min="10" max="10" width="81.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1409,9 +1564,9 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1423,7 +1578,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1435,14 +1590,14 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1454,9 +1609,9 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1468,7 +1623,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1480,14 +1635,14 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1499,9 +1654,9 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1513,9 +1668,9 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1527,9 +1682,9 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1541,9 +1696,9 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1555,9 +1710,9 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1569,9 +1724,9 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1583,9 +1738,9 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1597,14 +1752,14 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1616,9 +1771,9 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1630,9 +1785,9 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1644,9 +1799,9 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1658,14 +1813,14 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1677,9 +1832,9 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1691,7 +1846,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1703,14 +1858,14 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1722,9 +1877,9 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1736,14 +1891,14 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1755,9 +1910,9 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1769,14 +1924,14 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1788,9 +1943,9 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1802,9 +1957,9 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1816,7 +1971,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1828,14 +1983,14 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1847,9 +2002,9 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1863,23 +2018,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A14:J14"/>
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A7:J7"/>
     <mergeCell ref="A35:J35"/>
     <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A14:J14"/>
     <mergeCell ref="A15:J15"/>
     <mergeCell ref="A16:J16"/>
     <mergeCell ref="A17:J17"/>
@@ -1890,9 +2042,12 @@
     <mergeCell ref="A32:J32"/>
     <mergeCell ref="A21:J21"/>
     <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="A41:J41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/report/Weekly_Report.xlsx
+++ b/report/Weekly_Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parid\Documents\GitHub\ECE-554-Capstone-Project\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tcjordan3\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A8EB0B-44BE-4B31-B457-61C51F43A97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5CA519-E4AB-421F-AD8B-95F89264D377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{67EA143E-9FE8-7540-9204-94FEFE791C20}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{67EA143E-9FE8-7540-9204-94FEFE791C20}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -31,8 +31,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="89">
   <si>
     <t>Week 0</t>
   </si>
@@ -280,13 +278,40 @@
   </si>
   <si>
     <t>Got everything to work just in time for the demo!! (literally)</t>
+  </si>
+  <si>
+    <t>Cluster.sv, cluster_tb.sv</t>
+  </si>
+  <si>
+    <t>happy_feet.sv, happy_feet_tb.sv</t>
+  </si>
+  <si>
+    <t>Beginnings of full-system integration testing</t>
+  </si>
+  <si>
+    <t>Development of cluster unit for color identification</t>
+  </si>
+  <si>
+    <t>Basic synthesis &amp; signal-tap testing</t>
+  </si>
+  <si>
+    <t>Parameterization of modules</t>
+  </si>
+  <si>
+    <t>Furhter synthesis &amp; signal-tap testing</t>
+  </si>
+  <si>
+    <t>Developed enable signal to control timing of cluster unit</t>
+  </si>
+  <si>
+    <t>Frame counting logic to enable dynamic frame selection</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -336,17 +361,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -686,225 +711,225 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A65ED4-AFC3-7943-A54F-D26BF1B03A96}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" ht="50.45" customHeight="1">
+      <c r="A3" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:10">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="42.6" customHeight="1">
+      <c r="A7" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:10">
+      <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="39" customHeight="1">
+      <c r="A12" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" ht="19.899999999999999" customHeight="1">
       <c r="A23" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:1" s="2" customFormat="1">
+      <c r="A26" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>79</v>
       </c>
@@ -928,196 +953,261 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2032B162-400A-904A-9AB6-0D1C6A289E88}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:10">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:10">
+      <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1145,211 +1235,211 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:10" ht="49.15" customHeight="1">
+      <c r="A2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.6" customHeight="1">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.6" customHeight="1">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:10" ht="49.15" customHeight="1">
+      <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:10" ht="75" customHeight="1">
+      <c r="A10" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:1" ht="18" customHeight="1">
+      <c r="A22" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>67</v>
       </c>
@@ -1378,142 +1468,142 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1536,442 +1626,442 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E11836-74D5-4176-9C3E-4A3086E8DBFD}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="10" max="10" width="81.19921875" customWidth="1"/>
+    <col min="10" max="10" width="81.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:10">
+      <c r="A6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:10">
+      <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:10">
+      <c r="A21" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:10">
+      <c r="A27" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:10">
+      <c r="A31" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:10">
+      <c r="A35" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:10">
+      <c r="A39" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1983,41 +2073,59 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
+    <row r="44" spans="1:10">
+      <c r="A44" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A22:J22"/>
     <mergeCell ref="A23:J23"/>
     <mergeCell ref="A24:J24"/>
     <mergeCell ref="A27:J27"/>
@@ -2030,24 +2138,6 @@
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="A41:J41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
